--- a/TestData/AdminTestData/Admin_TestData_qa2.xlsx
+++ b/TestData/AdminTestData/Admin_TestData_qa2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TT095\Desktop\RT4\uttn\TT_Admin\TestData\AdminTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA17409-CD52-4B0C-B0CF-EA540D5A46B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8CE0F-4E7E-4419-8744-ADF8369A1301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="987" firstSheet="23" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="987" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -747,9 +747,6 @@
     <t>http://www.churchillsuites.com</t>
   </si>
   <si>
-    <t>harshini.vemuri@traveltripper.com</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -1470,9 +1467,6 @@
     <t>Superior King</t>
   </si>
   <si>
-    <t>testprop</t>
-  </si>
-  <si>
     <t>Avenue Street</t>
   </si>
   <si>
@@ -1488,95 +1482,101 @@
     <t>suites</t>
   </si>
   <si>
+    <t>Luxury Room</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>MaxOptionsAllowed</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>questionlabel</t>
+  </si>
+  <si>
+    <t>Multiple Selection</t>
+  </si>
+  <si>
+    <t>Guest Pref REG Test 1</t>
+  </si>
+  <si>
+    <t>Single Selection</t>
+  </si>
+  <si>
+    <t>Guest Pref REG Test 2</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Festival Smart Policy</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Magical Views of Luxury Rooms</t>
+  </si>
+  <si>
+    <t>5th room details</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Newly renovated Superior King room with an average of 270 square feet, 46” Samsung LED Full HD television, Simmons Beautyrest® mattress, iDoc mp3 docking station, and marble topped desk.</t>
+  </si>
+  <si>
+    <t>Our newly renovated Superiro King rooms are an average of 270 square feet and have 46” Samsung LED Full HD televisions, Simmons Beautyrest® mattresses, iDoc mp3 docking stations, streamlined dark mahogany desk and dresser with integrated velvet cushioned bench and white marble tops.  Complimentary HBO and ESPN, as well as access to all major networks, and pay per view movies on demand offer you all the comforts of home. These rooms are ideal for one or two people visiting for work or leisure.</t>
+  </si>
+  <si>
+    <t>Magical Views of Superior king</t>
+  </si>
+  <si>
+    <t>CompAccessCode</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>Siva Test Brand</t>
   </si>
   <si>
-    <t>Luxury Room</t>
-  </si>
-  <si>
-    <t>Selection</t>
-  </si>
-  <si>
-    <t>MaxOptionsAllowed</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>questionlabel</t>
-  </si>
-  <si>
-    <t>Multiple Selection</t>
-  </si>
-  <si>
-    <t>Guest Pref REG Test 1</t>
-  </si>
-  <si>
-    <t>Single Selection</t>
-  </si>
-  <si>
-    <t>Guest Pref REG Test 2</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>STB</t>
-  </si>
-  <si>
-    <t>Siva Test Property</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Festival Smart Policy</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>Magical Views of Luxury Rooms</t>
-  </si>
-  <si>
-    <t>5th room details</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Newly renovated Superior King room with an average of 270 square feet, 46” Samsung LED Full HD television, Simmons Beautyrest® mattress, iDoc mp3 docking station, and marble topped desk.</t>
-  </si>
-  <si>
-    <t>Our newly renovated Superiro King rooms are an average of 270 square feet and have 46” Samsung LED Full HD televisions, Simmons Beautyrest® mattresses, iDoc mp3 docking stations, streamlined dark mahogany desk and dresser with integrated velvet cushioned bench and white marble tops.  Complimentary HBO and ESPN, as well as access to all major networks, and pay per view movies on demand offer you all the comforts of home. These rooms are ideal for one or two people visiting for work or leisure.</t>
-  </si>
-  <si>
-    <t>Magical Views of Superior king</t>
-  </si>
-  <si>
-    <t>CompAccessCode</t>
-  </si>
-  <si>
-    <t>Standard Suite</t>
+    <t>Siv Prop</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>sivtstprop</t>
+  </si>
+  <si>
+    <t>venkata.kopparapu@Pegs.com</t>
+  </si>
+  <si>
+    <t>sacqa6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1604,6 +1604,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1622,10 +1630,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1666,8 +1675,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2090,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,10 +2407,10 @@
     </row>
     <row r="6" spans="1:18" ht="405" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>116</v>
@@ -2406,13 +2419,13 @@
         <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>121</v>
@@ -2450,25 +2463,25 @@
     </row>
     <row r="7" spans="1:18" ht="405" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>121</v>
@@ -2668,7 +2681,7 @@
         <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
         <v>173</v>
@@ -2709,10 +2722,10 @@
         <v>184</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E2" t="s">
         <v>186</v>
@@ -2756,18 +2769,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9"/>
-    <col min="6" max="6" width="22.28515625"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125"/>
   </cols>
   <sheetData>
@@ -2802,7 +2815,7 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>204</v>
@@ -2834,12 +2847,29 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="37.28515625"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="157.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -2914,32 +2944,32 @@
       <c r="E2" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>223</v>
@@ -2948,13 +2978,16 @@
         <v>224</v>
       </c>
       <c r="Q2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>241</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2A0EDE3D-44C1-4A72-B6A5-B14058C6136E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -2972,36 +3005,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -3024,54 +3057,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +3151,7 @@
         <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D1" t="s">
         <v>172</v>
@@ -3154,16 +3187,16 @@
         <v>182</v>
       </c>
       <c r="O1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" t="s">
         <v>267</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>269</v>
-      </c>
-      <c r="R1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3174,7 +3207,7 @@
         <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>185</v>
@@ -3201,7 +3234,7 @@
         <v>190</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
         <v>192</v>
@@ -3210,13 +3243,13 @@
         <v>193</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>183</v>
@@ -3249,37 +3282,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>273</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" t="s">
         <v>276</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>277</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" t="s">
         <v>278</v>
       </c>
-      <c r="H1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>279</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>280</v>
-      </c>
-      <c r="K1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3287,16 +3320,16 @@
         <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -3305,13 +3338,13 @@
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>132</v>
@@ -3400,7 +3433,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,18 +3445,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -3440,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,36 +3490,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>172</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>502</v>
+        <v>281</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>185</v>
@@ -3520,12 +3553,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="1"/>
@@ -3538,7 +3571,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3589,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,18 +3601,18 @@
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1024" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AMH2"/>
       <c r="AMI2"/>
@@ -3613,28 +3646,28 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>303</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>304</v>
-      </c>
-      <c r="H1" t="s">
-        <v>305</v>
       </c>
       <c r="I1" t="s">
         <v>171</v>
@@ -3658,39 +3691,39 @@
         <v>182</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1024" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>185</v>
@@ -3711,10 +3744,10 @@
         <v>193</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="ALX2"/>
       <c r="ALY2"/>
@@ -3757,16 +3790,16 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>56</v>
@@ -3775,18 +3808,18 @@
         <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1024" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>202</v>
@@ -3856,16 +3889,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>322</v>
-      </c>
-      <c r="D1" t="s">
-        <v>323</v>
       </c>
       <c r="E1" t="s">
         <v>97</v>
@@ -3874,78 +3907,78 @@
         <v>98</v>
       </c>
       <c r="G1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>341</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>188</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>188</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3973,78 +4006,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>350</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" t="s">
         <v>354</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>355</v>
-      </c>
-      <c r="L1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4072,60 +4105,60 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>379</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>16</v>
@@ -4134,7 +4167,7 @@
         <v>64</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>78</v>
@@ -4163,72 +4196,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4346,34 +4379,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
         <v>464</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4399,45 +4432,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" t="s">
         <v>398</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>399</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>400</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>401</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>402</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>403</v>
-      </c>
-      <c r="G1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
         <v>405</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>406</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>407</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>408</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>409</v>
-      </c>
-      <c r="F2" t="s">
-        <v>410</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -4445,22 +4478,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" t="s">
         <v>411</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>412</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" t="s">
         <v>413</v>
-      </c>
-      <c r="E3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" t="s">
-        <v>414</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -4491,63 +4524,63 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>78</v>
@@ -4555,31 +4588,31 @@
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>53</v>
@@ -4599,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -4610,114 +4643,114 @@
   <sheetData>
     <row r="1" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="C1" t="s">
         <v>173</v>
       </c>
       <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
         <v>440</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>441</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" t="s">
         <v>445</v>
       </c>
-      <c r="J1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>446</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" t="s">
         <v>447</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>448</v>
-      </c>
-      <c r="O1" t="s">
-        <v>449</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4811,7 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -4816,7 +4849,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4860,19 +4893,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -4986,62 +5019,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1" t="s">
-        <v>480</v>
-      </c>
       <c r="E1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
